--- a/experiments/pg/easy_simulation/traj_10_batch_100_max_rew_mlp_2x64_20k_epochs/log_best_traj.xlsx
+++ b/experiments/pg/easy_simulation/traj_10_batch_100_max_rew_mlp_2x64_20k_epochs/log_best_traj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1371"/>
+  <dimension ref="A1:K1421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61028,6 +61028,2216 @@
         </is>
       </c>
     </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1372" t="n">
+        <v>15.91608409939166</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>25.74904024753722</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>4.809983948916852e-07</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>0.0001000008906275757</v>
+      </c>
+      <c r="J1372" t="inlineStr">
+        <is>
+          <t>[0.9910592436790466, 0.006765433587133884, 0.0021752521861344576]</t>
+        </is>
+      </c>
+      <c r="K1372" t="inlineStr">
+        <is>
+          <t>[0.9970353841781616, 0.0029645785689353943]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1373" t="n">
+        <v>16.82549471046794</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>25.74904024753722</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>4.809983948916852e-07</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>0.0001000008906275757</v>
+      </c>
+      <c r="J1373" t="inlineStr">
+        <is>
+          <t>[0.6054727435112, 0.3354215919971466, 0.05910570174455643]</t>
+        </is>
+      </c>
+      <c r="K1373" t="inlineStr">
+        <is>
+          <t>[0.9976243376731873, 0.0023756339214742184]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>[0 2 2]</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1374" t="n">
+        <v>24.39003564368822</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>25.74904024753722</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>4.809983948916852e-07</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>0.0001000008906275757</v>
+      </c>
+      <c r="J1374" t="inlineStr">
+        <is>
+          <t>[0.0012201674981042743, 0.8886085748672485, 0.11017128825187683]</t>
+        </is>
+      </c>
+      <c r="K1374" t="inlineStr">
+        <is>
+          <t>[0.9976958632469177, 0.002304094610735774]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>[0 1 2]</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1375" t="n">
+        <v>20.69653372297092</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>25.74904024753722</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>4.809983948916852e-07</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>0.0001000008906275757</v>
+      </c>
+      <c r="J1375" t="inlineStr">
+        <is>
+          <t>[0.001024590921588242, 0.4084659516811371, 0.5905095338821411]</t>
+        </is>
+      </c>
+      <c r="K1375" t="inlineStr">
+        <is>
+          <t>[0.9975665807723999, 0.002433386165648699]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>[0 1 1]</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1376" t="n">
+        <v>25.00251478434989</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>25.74904024753722</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>4.809983948916852e-07</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>0.0001000008906275757</v>
+      </c>
+      <c r="J1376" t="inlineStr">
+        <is>
+          <t>[0.00037531883572228253, 0.7684840559959412, 0.23114065825939178]</t>
+        </is>
+      </c>
+      <c r="K1376" t="inlineStr">
+        <is>
+          <t>[0.9981221556663513, 0.0018778543453663588]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>[0 0 1]</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1377" t="n">
+        <v>23.81196312340231</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>25.74904024753722</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>4.809983948916852e-07</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>0.0001000008906275757</v>
+      </c>
+      <c r="J1377" t="inlineStr">
+        <is>
+          <t>[0.0005827703280374408, 0.12831370532512665, 0.8711034655570984]</t>
+        </is>
+      </c>
+      <c r="K1377" t="inlineStr">
+        <is>
+          <t>[0.9972211122512817, 0.0027789410669356585]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1378" t="n">
+        <v>25.74904072853561</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>2.57490348815918</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>25.74904024753722</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>4.809983948916852e-07</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>0.0001000008906275757</v>
+      </c>
+      <c r="J1378" t="inlineStr">
+        <is>
+          <t>[0.0014189233770594, 0.4420700967311859, 0.5565109848976135]</t>
+        </is>
+      </c>
+      <c r="K1378" t="inlineStr">
+        <is>
+          <t>[0.9970889687538147, 0.0029110985342413187]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1379" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1379" t="n">
+        <v>25.74904024753722</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>4.809983948916852e-07</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>0.0001000008906275757</v>
+      </c>
+      <c r="J1379" t="inlineStr">
+        <is>
+          <t>[0.0030456737149506807, 0.7491981983184814, 0.24775616824626923]</t>
+        </is>
+      </c>
+      <c r="K1379" t="inlineStr">
+        <is>
+          <t>[0.9964128136634827, 0.0035872329026460648]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1380" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1380" t="n">
+        <v>25.74904024753722</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>4.809983948916852e-07</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>0.0001000008906275757</v>
+      </c>
+      <c r="J1380" t="inlineStr">
+        <is>
+          <t>[0.00620240205898881, 0.29515406489372253, 0.6986435055732727]</t>
+        </is>
+      </c>
+      <c r="K1380" t="inlineStr">
+        <is>
+          <t>[0.9939829707145691, 0.006017053034156561]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>[ 0 -2 -1]</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1381" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1381" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1381" t="n">
+        <v>25.74904024753722</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>4.809983948916852e-07</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>0.0001000008906275757</v>
+      </c>
+      <c r="J1381" t="inlineStr">
+        <is>
+          <t>[0.007403104100376368, 0.10854554921388626, 0.8840512633323669]</t>
+        </is>
+      </c>
+      <c r="K1381" t="inlineStr">
+        <is>
+          <t>[0.989717960357666, 0.010282078757882118]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1382" t="n">
+        <v>15.91608409939166</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>2.591901779174805</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>25.73203797526406</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>0.01700275327155865</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>0.1725781314172919</v>
+      </c>
+      <c r="J1382" t="inlineStr">
+        <is>
+          <t>[0.9912697076797485, 0.006545019336044788, 0.0021852413192391396]</t>
+        </is>
+      </c>
+      <c r="K1382" t="inlineStr">
+        <is>
+          <t>[0.9970754384994507, 0.0029245158657431602]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1383" t="n">
+        <v>16.82549471046794</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>2.591901779174805</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>25.73203797526406</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>0.01700275327155865</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>0.1725781314172919</v>
+      </c>
+      <c r="J1383" t="inlineStr">
+        <is>
+          <t>[0.6130951046943665, 0.32701626420021057, 0.05988861992955208]</t>
+        </is>
+      </c>
+      <c r="K1383" t="inlineStr">
+        <is>
+          <t>[0.9976564645767212, 0.0023434555623680353]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>[0 2 2]</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1384" t="n">
+        <v>24.39003564368822</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>2.591901779174805</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>25.73203797526406</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>0.01700275327155865</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>0.1725781314172919</v>
+      </c>
+      <c r="J1384" t="inlineStr">
+        <is>
+          <t>[0.0012257356429472566, 0.8868309259414673, 0.11194335669279099]</t>
+        </is>
+      </c>
+      <c r="K1384" t="inlineStr">
+        <is>
+          <t>[0.9977260231971741, 0.0022740166168659925]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>[0 1 2]</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1385" t="n">
+        <v>20.69653372297092</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>2.591901779174805</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>25.73203797526406</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>0.01700275327155865</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>0.1725781314172919</v>
+      </c>
+      <c r="J1385" t="inlineStr">
+        <is>
+          <t>[0.0010241761337965727, 0.40982961654663086, 0.5891461968421936]</t>
+        </is>
+      </c>
+      <c r="K1385" t="inlineStr">
+        <is>
+          <t>[0.9975956082344055, 0.0024043472949415445]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>[0 1 1]</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1386" t="n">
+        <v>25.00251478434989</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>2.591901779174805</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>25.73203797526406</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>0.01700275327155865</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>0.1725781314172919</v>
+      </c>
+      <c r="J1386" t="inlineStr">
+        <is>
+          <t>[0.0003745983703993261, 0.7744700908660889, 0.22515523433685303]</t>
+        </is>
+      </c>
+      <c r="K1386" t="inlineStr">
+        <is>
+          <t>[0.9981439113616943, 0.0018561446340754628]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>[0 0 1]</t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1387" t="n">
+        <v>23.81196312340231</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>2.591901779174805</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>25.73203797526406</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>0.01700275327155865</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>0.1725781314172919</v>
+      </c>
+      <c r="J1387" t="inlineStr">
+        <is>
+          <t>[0.0006009916542097926, 0.13523897528648376, 0.8641600608825684]</t>
+        </is>
+      </c>
+      <c r="K1387" t="inlineStr">
+        <is>
+          <t>[0.9972482323646545, 0.002751739462837577]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1388" t="n">
+        <v>25.74904072853561</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>2.591901779174805</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>25.73203797526406</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>0.01700275327155865</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>0.1725781314172919</v>
+      </c>
+      <c r="J1388" t="inlineStr">
+        <is>
+          <t>[0.001448422553949058, 0.46163830161094666, 0.536913275718689]</t>
+        </is>
+      </c>
+      <c r="K1388" t="inlineStr">
+        <is>
+          <t>[0.9971147775650024, 0.0028852070681750774]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1389" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1389" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1389" t="n">
+        <v>25.73203797526406</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>0.01700275327155865</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>0.1725781314172919</v>
+      </c>
+      <c r="J1389" t="inlineStr">
+        <is>
+          <t>[0.003038950962945819, 0.7637073993682861, 0.23325364291667938]</t>
+        </is>
+      </c>
+      <c r="K1389" t="inlineStr">
+        <is>
+          <t>[0.9964409470558167, 0.003558994736522436]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1390" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1390" t="n">
+        <v>25.73203797526406</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>0.01700275327155865</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>0.1725781314172919</v>
+      </c>
+      <c r="J1390" t="inlineStr">
+        <is>
+          <t>[0.006401233375072479, 0.31344085931777954, 0.6801579594612122]</t>
+        </is>
+      </c>
+      <c r="K1390" t="inlineStr">
+        <is>
+          <t>[0.9940213561058044, 0.005978669039905071]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -2]</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1391" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1391" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1391" t="n">
+        <v>25.73203797526406</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>0.01700275327155865</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>0.1725781314172919</v>
+      </c>
+      <c r="J1391" t="inlineStr">
+        <is>
+          <t>[0.011489891447126865, 0.5726686716079712, 0.4158414304256439]</t>
+        </is>
+      </c>
+      <c r="K1391" t="inlineStr">
+        <is>
+          <t>[0.9925185441970825, 0.0074814483523368835]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1392" t="n">
+        <v>15.91608409939166</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>25.74155826044489</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>0.007482468090728389</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>0.1055481799055009</v>
+      </c>
+      <c r="J1392" t="inlineStr">
+        <is>
+          <t>[0.989997386932373, 0.00745816808193922, 0.002544390968978405]</t>
+        </is>
+      </c>
+      <c r="K1392" t="inlineStr">
+        <is>
+          <t>[0.997124969959259, 0.0028750819619745016]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1393" t="n">
+        <v>23.26311886561445</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>25.74155826044489</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>0.007482468090728389</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>0.1055481799055009</v>
+      </c>
+      <c r="J1393" t="inlineStr">
+        <is>
+          <t>[0.5631573796272278, 0.36705949902534485, 0.06978312134742737]</t>
+        </is>
+      </c>
+      <c r="K1393" t="inlineStr">
+        <is>
+          <t>[0.9976958632469177, 0.00230414723046124]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>[1 1 2]</t>
+        </is>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1394" t="n">
+        <v>24.39003564368822</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>25.74155826044489</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>0.007482468090728389</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>0.1055481799055009</v>
+      </c>
+      <c r="J1394" t="inlineStr">
+        <is>
+          <t>[0.8521010875701904, 0.07047313451766968, 0.07742580771446228]</t>
+        </is>
+      </c>
+      <c r="K1394" t="inlineStr">
+        <is>
+          <t>[0.99779212474823, 0.0022078403271734715]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>[0 1 2]</t>
+        </is>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1395" t="n">
+        <v>20.69653372297092</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>25.74155826044489</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>0.007482468090728389</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>0.1055481799055009</v>
+      </c>
+      <c r="J1395" t="inlineStr">
+        <is>
+          <t>[0.000848275376483798, 0.39737120270729065, 0.6017804741859436]</t>
+        </is>
+      </c>
+      <c r="K1395" t="inlineStr">
+        <is>
+          <t>[0.9976297616958618, 0.002370249480009079]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>[0 1 1]</t>
+        </is>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1396" t="n">
+        <v>25.00251286048584</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>25.74155826044489</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>0.007482468090728389</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>0.1055481799055009</v>
+      </c>
+      <c r="J1396" t="inlineStr">
+        <is>
+          <t>[0.0003184364759363234, 0.7686449289321899, 0.23103658854961395]</t>
+        </is>
+      </c>
+      <c r="K1396" t="inlineStr">
+        <is>
+          <t>[0.9981693029403687, 0.0018306769197806716]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>[0 1 0]</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1397" t="n">
+        <v>23.81196312340231</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>25.74155826044489</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>0.007482468090728389</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>0.1055481799055009</v>
+      </c>
+      <c r="J1397" t="inlineStr">
+        <is>
+          <t>[0.0003501895407680422, 0.9300509095191956, 0.0695989578962326]</t>
+        </is>
+      </c>
+      <c r="K1397" t="inlineStr">
+        <is>
+          <t>[0.99814772605896, 0.0018522711470723152]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1398" t="n">
+        <v>25.74904072853561</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>25.74155826044489</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>0.007482468090728389</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>0.1055481799055009</v>
+      </c>
+      <c r="J1398" t="inlineStr">
+        <is>
+          <t>[0.001279844669625163, 0.46579036116600037, 0.5329297780990601]</t>
+        </is>
+      </c>
+      <c r="K1398" t="inlineStr">
+        <is>
+          <t>[0.9971440434455872, 0.002855966566130519]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1399" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1399" t="n">
+        <v>25.74155826044489</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>0.007482468090728389</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>0.1055481799055009</v>
+      </c>
+      <c r="J1399" t="inlineStr">
+        <is>
+          <t>[0.0027388969901949167, 0.7689566612243652, 0.2283044159412384]</t>
+        </is>
+      </c>
+      <c r="K1399" t="inlineStr">
+        <is>
+          <t>[0.9964728951454163, 0.0035270783118903637]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1400" t="n">
+        <v>25.74155826044489</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>0.007482468090728389</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>0.1055481799055009</v>
+      </c>
+      <c r="J1400" t="inlineStr">
+        <is>
+          <t>[0.0059781428426504135, 0.3208926320075989, 0.6731292605400085]</t>
+        </is>
+      </c>
+      <c r="K1400" t="inlineStr">
+        <is>
+          <t>[0.994062602519989, 0.005937375593930483]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -2]</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1401" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1401" t="n">
+        <v>25.74155826044489</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>0.007482468090728389</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>0.1055481799055009</v>
+      </c>
+      <c r="J1401" t="inlineStr">
+        <is>
+          <t>[0.010811040177941322, 0.5826201438903809, 0.40656885504722595]</t>
+        </is>
+      </c>
+      <c r="K1401" t="inlineStr">
+        <is>
+          <t>[0.9925640225410461, 0.007435995154082775]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1402" t="n">
+        <v>15.91608409939166</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>2.597349166870117</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>25.72659403031809</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>0.02244669821752154</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>0.1818937017061981</v>
+      </c>
+      <c r="J1402" t="inlineStr">
+        <is>
+          <t>[0.9880973696708679, 0.008731445297598839, 0.003171208081766963]</t>
+        </is>
+      </c>
+      <c r="K1402" t="inlineStr">
+        <is>
+          <t>[0.9971733093261719, 0.0028266850858926773]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1403" t="n">
+        <v>23.26311886561445</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>2.597349166870117</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>25.72659403031809</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>0.02244669821752154</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>0.1818937017061981</v>
+      </c>
+      <c r="J1403" t="inlineStr">
+        <is>
+          <t>[0.49948400259017944, 0.41352346539497375, 0.08699249476194382]</t>
+        </is>
+      </c>
+      <c r="K1403" t="inlineStr">
+        <is>
+          <t>[0.997734546661377, 0.0022654859349131584]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>[1 1 2]</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1404" t="n">
+        <v>24.39003564368822</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>2.597349166870117</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>25.72659403031809</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>0.02244669821752154</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>0.1818937017061981</v>
+      </c>
+      <c r="J1404" t="inlineStr">
+        <is>
+          <t>[0.8045634031295776, 0.08643174916505814, 0.10900486260652542]</t>
+        </is>
+      </c>
+      <c r="K1404" t="inlineStr">
+        <is>
+          <t>[0.9978259205818176, 0.0021740433294326067]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>[0 1 2]</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1405" t="n">
+        <v>20.69653372297092</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>2.597349166870117</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>25.72659403031809</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>0.02244669821752154</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>0.1818937017061981</v>
+      </c>
+      <c r="J1405" t="inlineStr">
+        <is>
+          <t>[0.0006661912775598466, 0.35445573925971985, 0.644878089427948]</t>
+        </is>
+      </c>
+      <c r="K1405" t="inlineStr">
+        <is>
+          <t>[0.9976634979248047, 0.0023365605156868696]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>[0 1 1]</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1406" t="n">
+        <v>25.00251478434989</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>2.597349166870117</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>25.72659403031809</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>0.02244669821752154</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>0.1818937017061981</v>
+      </c>
+      <c r="J1406" t="inlineStr">
+        <is>
+          <t>[0.00026592297945171595, 0.7317354679107666, 0.2679985761642456]</t>
+        </is>
+      </c>
+      <c r="K1406" t="inlineStr">
+        <is>
+          <t>[0.99819415807724, 0.001805794658139348]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>[0 0 1]</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1407" t="n">
+        <v>23.81196312340231</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>2.597349166870117</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>25.72659403031809</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>0.02244669821752154</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>0.1818937017061981</v>
+      </c>
+      <c r="J1407" t="inlineStr">
+        <is>
+          <t>[0.0004015914164483547, 0.11602969467639923, 0.8835686445236206]</t>
+        </is>
+      </c>
+      <c r="K1407" t="inlineStr">
+        <is>
+          <t>[0.997308611869812, 0.002691376255825162]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1408" t="n">
+        <v>25.74904072853561</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>2.597349166870117</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>25.72659403031809</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>0.02244669821752154</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>0.1818937017061981</v>
+      </c>
+      <c r="J1408" t="inlineStr">
+        <is>
+          <t>[0.0010570420417934656, 0.42531150579452515, 0.5736314058303833]</t>
+        </is>
+      </c>
+      <c r="K1408" t="inlineStr">
+        <is>
+          <t>[0.9971717000007629, 0.0028283766005188227]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1409" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1409" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1409" t="n">
+        <v>25.72659403031809</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>0.02244669821752154</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>0.1818937017061981</v>
+      </c>
+      <c r="J1409" t="inlineStr">
+        <is>
+          <t>[0.0024410171899944544, 0.7453225255012512, 0.2522364854812622]</t>
+        </is>
+      </c>
+      <c r="K1409" t="inlineStr">
+        <is>
+          <t>[0.9965022802352905, 0.003497684607282281]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1410" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1410" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1410" t="n">
+        <v>25.72659403031809</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>0.02244669821752154</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>0.1818937017061981</v>
+      </c>
+      <c r="J1410" t="inlineStr">
+        <is>
+          <t>[0.0052096727304160595, 0.2955963909626007, 0.6991940140724182]</t>
+        </is>
+      </c>
+      <c r="K1410" t="inlineStr">
+        <is>
+          <t>[0.9940990209579468, 0.00590096740052104]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>[ 0 -2 -1]</t>
+        </is>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1411" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1411" t="n">
+        <v>25.72659403031809</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>0.02244669821752154</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>0.1818937017061981</v>
+      </c>
+      <c r="J1411" t="inlineStr">
+        <is>
+          <t>[0.006529129575937986, 0.10983441025018692, 0.8836364150047302]</t>
+        </is>
+      </c>
+      <c r="K1411" t="inlineStr">
+        <is>
+          <t>[0.9898661971092224, 0.010133864358067513]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1412" t="n">
+        <v>15.91608409939166</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>25.74155822213528</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>0.007482506400332767</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>0.1055481771898232</v>
+      </c>
+      <c r="J1412" t="inlineStr">
+        <is>
+          <t>[0.9875432252883911, 0.009102928452193737, 0.003353854175657034]</t>
+        </is>
+      </c>
+      <c r="K1412" t="inlineStr">
+        <is>
+          <t>[0.9972209930419922, 0.002778954105451703]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>[1 2 2]</t>
+        </is>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1413" t="n">
+        <v>16.82549471046794</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>25.74155822213528</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>0.007482506400332767</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>0.1055481771898232</v>
+      </c>
+      <c r="J1413" t="inlineStr">
+        <is>
+          <t>[0.4811124801635742, 0.4265652000904083, 0.09232228994369507]</t>
+        </is>
+      </c>
+      <c r="K1413" t="inlineStr">
+        <is>
+          <t>[0.9977734684944153, 0.002226452110335231]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>[0 2 2]</t>
+        </is>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1414" t="n">
+        <v>24.39003564368822</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>25.74155822213528</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>0.007482506400332767</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>0.1055481771898232</v>
+      </c>
+      <c r="J1414" t="inlineStr">
+        <is>
+          <t>[0.0008324516238644719, 0.8553355932235718, 0.1438319981098175]</t>
+        </is>
+      </c>
+      <c r="K1414" t="inlineStr">
+        <is>
+          <t>[0.9978353381156921, 0.0021646462846547365]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>[0 1 2]</t>
+        </is>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1415" t="n">
+        <v>20.69653372297092</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>25.74155822213528</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>0.007482506400332767</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>0.1055481771898232</v>
+      </c>
+      <c r="J1415" t="inlineStr">
+        <is>
+          <t>[0.0006063833134248853, 0.33133453130722046, 0.6680591106414795]</t>
+        </is>
+      </c>
+      <c r="K1415" t="inlineStr">
+        <is>
+          <t>[0.9976999163627625, 0.002300041262060404]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>[0 1 1]</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1416" t="n">
+        <v>25.00251478434989</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>25.74155822213528</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>0.007482506400332767</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>0.1055481771898232</v>
+      </c>
+      <c r="J1416" t="inlineStr">
+        <is>
+          <t>[0.00024783427943475544, 0.708031952381134, 0.2917202413082123]</t>
+        </is>
+      </c>
+      <c r="K1416" t="inlineStr">
+        <is>
+          <t>[0.9982210993766785, 0.001778843579813838]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>[0 0 1]</t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1417" t="n">
+        <v>23.81196312340231</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>25.74155822213528</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>0.007482506400332767</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>0.1055481771898232</v>
+      </c>
+      <c r="J1417" t="inlineStr">
+        <is>
+          <t>[0.0003516327415127307, 0.10237455368041992, 0.89727383852005]</t>
+        </is>
+      </c>
+      <c r="K1417" t="inlineStr">
+        <is>
+          <t>[0.9973422884941101, 0.0026577054522931576]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1418" t="n">
+        <v>25.74904072853561</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>2.58238410949707</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>25.74155822213528</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>0.007482506400332767</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>0.1055481771898232</v>
+      </c>
+      <c r="J1418" t="inlineStr">
+        <is>
+          <t>[0.0009629199048504233, 0.3927290141582489, 0.6063080430030823]</t>
+        </is>
+      </c>
+      <c r="K1418" t="inlineStr">
+        <is>
+          <t>[0.9972026348114014, 0.002797388006001711]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1419" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1419" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1419" t="n">
+        <v>25.74155822213528</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>0.007482506400332767</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>0.1055481771898232</v>
+      </c>
+      <c r="J1419" t="inlineStr">
+        <is>
+          <t>[0.002338517690077424, 0.7237412333488464, 0.27392032742500305]</t>
+        </is>
+      </c>
+      <c r="K1419" t="inlineStr">
+        <is>
+          <t>[0.9965347051620483, 0.0034653430338948965]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>[ 0  0 -2]</t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1420" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1420" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1420" t="n">
+        <v>25.74155822213528</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>0.007482506400332767</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>0.1055481771898232</v>
+      </c>
+      <c r="J1420" t="inlineStr">
+        <is>
+          <t>[0.004090664442628622, 0.8604915738105774, 0.13541772961616516]</t>
+        </is>
+      </c>
+      <c r="K1420" t="inlineStr">
+        <is>
+          <t>[0.9953590035438538, 0.004640977829694748]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -2]</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1421" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1421" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1421" t="n">
+        <v>25.74155822213528</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>0.007482506400332767</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>0.1055481771898232</v>
+      </c>
+      <c r="J1421" t="inlineStr">
+        <is>
+          <t>[0.009552659466862679, 0.5351463556289673, 0.4553009867668152]</t>
+        </is>
+      </c>
+      <c r="K1421" t="inlineStr">
+        <is>
+          <t>[0.9926456212997437, 0.0073544057086110115]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
